--- a/shiny/AnalyticsSchoolFinder/data.xlsx
+++ b/shiny/AnalyticsSchoolFinder/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edima/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edima/Documents/Coding/R/shiny/AnalyticsSchoolFinder/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>University/College</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>http://schulich.yorku.ca/programs/mban/</t>
+  </si>
+  <si>
+    <t>Master of Business Analytics</t>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+  </si>
+  <si>
+    <t>http://www.rotman.utoronto.ca/Degrees/MastersPrograms/MMA</t>
   </si>
 </sst>
 </file>
@@ -478,17 +493,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="118.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
@@ -621,6 +636,28 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
